--- a/results/all.xlsx
+++ b/results/all.xlsx
@@ -32,16 +32,16 @@
     <t>step</t>
   </si>
   <si>
-    <t>a=0.9,g=0.9</t>
-  </si>
-  <si>
-    <t>a=0.5,g=0.5</t>
-  </si>
-  <si>
     <t>q learn</t>
   </si>
   <si>
     <t>SARSA</t>
+  </si>
+  <si>
+    <t>DynaQ</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>a=0.5,g=0.5</c:v>
+            <c:v>Dyna Q</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
@@ -151,20 +151,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$101</c:f>
@@ -441,6 +427,159 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0233333333333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -476,20 +615,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$101</c:f>
@@ -928,7 +1053,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>a=0.9,g=0.5</c:v>
+            <c:v>SARSA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -954,20 +1079,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$101</c:f>
@@ -1406,7 +1517,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>a=0.9,g=0.9</c:v>
+            <c:v>NN</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1432,20 +1543,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$101</c:f>
@@ -1735,11 +1832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1569594080"/>
-        <c:axId val="1636169504"/>
+        <c:axId val="1653850784"/>
+        <c:axId val="1592025424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1569594080"/>
+        <c:axId val="1653850784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1781,7 +1878,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Episode (in 500s)</a:t>
+                  <a:t>Episode (in 1000s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1852,14 +1949,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636169504"/>
+        <c:crossAx val="1592025424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1636169504"/>
+        <c:axId val="1592025424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1969,7 +2067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1569594080"/>
+        <c:crossAx val="1653850784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2906,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2917,21 +3015,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2947,6 +3048,9 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>0.12</v>
       </c>
@@ -2960,6 +3064,9 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>0.26</v>
       </c>
@@ -2973,6 +3080,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0.7</v>
       </c>
@@ -2986,6 +3096,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>0.66</v>
       </c>
@@ -2999,6 +3112,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.04</v>
+      </c>
       <c r="C7">
         <v>0.56000000000000005</v>
       </c>
@@ -3012,6 +3128,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>0.5</v>
       </c>
@@ -3025,6 +3144,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>0.57999999999999996</v>
       </c>
@@ -3038,6 +3160,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>0.86</v>
       </c>
@@ -3051,6 +3176,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.06</v>
+      </c>
       <c r="C11">
         <v>0.84</v>
       </c>
@@ -3064,6 +3192,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>0.06</v>
+      </c>
       <c r="C12">
         <v>0.82</v>
       </c>
@@ -3077,6 +3208,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>0.04</v>
+      </c>
       <c r="C13">
         <v>0.72</v>
       </c>
@@ -3090,6 +3224,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>0.7</v>
       </c>
@@ -3103,6 +3240,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C15">
         <v>0.78</v>
       </c>
@@ -3116,6 +3256,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>0.7</v>
       </c>
@@ -3129,6 +3272,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>0.78</v>
       </c>
@@ -3142,6 +3288,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>0.8</v>
       </c>
@@ -3155,6 +3304,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>0.7</v>
       </c>
@@ -3168,6 +3320,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>0.76</v>
       </c>
@@ -3181,6 +3336,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>0.72</v>
       </c>
@@ -3194,6 +3352,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>0.74</v>
       </c>
@@ -3207,6 +3368,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B23" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C23">
         <v>0.68</v>
       </c>
@@ -3220,6 +3384,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>0.76</v>
       </c>
@@ -3233,6 +3400,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B25" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C25">
         <v>0.72</v>
       </c>
@@ -3246,6 +3416,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>0.7</v>
       </c>
@@ -3259,6 +3432,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B27" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C27">
         <v>0.68</v>
       </c>
@@ -3272,6 +3448,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B28" s="1">
+        <v>0.06</v>
+      </c>
       <c r="C28">
         <v>0.74</v>
       </c>
@@ -3285,6 +3464,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B29" s="1">
+        <v>0.04</v>
+      </c>
       <c r="C29">
         <v>0.78</v>
       </c>
@@ -3298,6 +3480,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B30" s="1">
+        <v>0.04</v>
+      </c>
       <c r="C30">
         <v>0.72</v>
       </c>
@@ -3311,6 +3496,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B31" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C31">
         <v>0.78</v>
       </c>
@@ -3324,6 +3512,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>0.68</v>
       </c>
@@ -3337,6 +3528,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>0.6</v>
       </c>
@@ -3350,6 +3544,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>0.82</v>
       </c>
@@ -3363,6 +3560,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>0.74</v>
       </c>
@@ -3376,6 +3576,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>0.74</v>
       </c>
@@ -3389,6 +3592,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="B37" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C37">
         <v>0.82</v>
       </c>
@@ -3402,6 +3608,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B38" s="1">
+        <v>0.16</v>
+      </c>
       <c r="C38">
         <v>0.72</v>
       </c>
@@ -3415,6 +3624,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="B39" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C39">
         <v>0.72</v>
       </c>
@@ -3428,6 +3640,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>0.06</v>
+      </c>
       <c r="C40">
         <v>0.72</v>
       </c>
@@ -3441,6 +3656,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>0.8</v>
       </c>
@@ -3454,6 +3672,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0.1</v>
+      </c>
       <c r="C42">
         <v>0.78</v>
       </c>
@@ -3467,6 +3688,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>0.76</v>
       </c>
@@ -3480,6 +3704,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>0.82</v>
       </c>
@@ -3493,6 +3720,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.2</v>
+      </c>
       <c r="C45">
         <v>0.68</v>
       </c>
@@ -3506,6 +3736,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>0.78</v>
       </c>
@@ -3519,6 +3752,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="B47" s="1">
+        <v>0.08</v>
+      </c>
       <c r="C47">
         <v>0.72</v>
       </c>
@@ -3532,6 +3768,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>0.78</v>
       </c>
@@ -3545,6 +3784,9 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="B49" s="1">
+        <v>0.04</v>
+      </c>
       <c r="C49">
         <v>0.82</v>
       </c>
@@ -3558,6 +3800,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>0.82</v>
       </c>
@@ -3571,6 +3816,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="B51" s="1">
+        <v>0.06</v>
+      </c>
       <c r="C51">
         <v>0.68</v>
       </c>
@@ -3584,8 +3832,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="B52">
+        <f t="shared" ref="B52:C52" si="1">AVERAGE(B2:B49)</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
       <c r="C52">
-        <f t="shared" ref="C52:E52" si="1">AVERAGE(C2:C49)</f>
+        <f t="shared" si="1"/>
         <v>0.69499999999999995</v>
       </c>
       <c r="D52" s="1">
@@ -3684,7 +3936,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="2">A67+1</f>
+        <f t="shared" ref="A68:A88" si="2">A67+1</f>
         <v>66</v>
       </c>
     </row>

--- a/results/all.xlsx
+++ b/results/all.xlsx
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E2:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/all.xlsx
+++ b/results/all.xlsx
@@ -153,10 +153,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -300,285 +300,159 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.08</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0233333333333333</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,10 +491,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -764,133 +638,16 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:f>Sheet1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1034,15 +791,6 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,10 +829,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1228,138 +976,21 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:f>Sheet1!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -1368,145 +999,136 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.08</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.08</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.08</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.06</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.06</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.06</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.14</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.12</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.22</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.18</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.18</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.18</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.18</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.12</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.08</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.12</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,10 +1167,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1692,133 +1314,160 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1832,11 +1481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1653850784"/>
-        <c:axId val="1592025424"/>
+        <c:axId val="666567664"/>
+        <c:axId val="637422720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1653850784"/>
+        <c:axId val="666567664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1949,12 +1598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1592025424"/>
+        <c:crossAx val="637422720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1592025424"/>
+        <c:axId val="637422720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2067,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653850784"/>
+        <c:crossAx val="666567664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3004,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3032,7 +2681,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
@@ -3041,31 +2690,35 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
+      <c r="B3">
+        <v>0.1</v>
       </c>
       <c r="C3">
         <v>0.12</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="E3">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="B4">
+        <v>0.16</v>
       </c>
       <c r="C4">
         <v>0.26</v>
@@ -3073,15 +2726,17 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
+      <c r="B5">
+        <v>0.22</v>
       </c>
       <c r="C5">
         <v>0.7</v>
@@ -3089,31 +2744,35 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
+      <c r="B6">
+        <v>0.04</v>
       </c>
       <c r="C6">
         <v>0.66</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="E6">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.04</v>
+      <c r="B7">
+        <v>0.06</v>
       </c>
       <c r="C7">
         <v>0.56000000000000005</v>
@@ -3121,46 +2780,52 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
+      <c r="B8">
+        <v>0.02</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="E8">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
+      <c r="B9">
+        <v>0.32</v>
       </c>
       <c r="C9">
         <v>0.57999999999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
@@ -3169,663 +2834,747 @@
       <c r="D10" s="1">
         <v>0.02</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.06</v>
+      <c r="B11">
+        <v>0.12</v>
       </c>
       <c r="C11">
         <v>0.84</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.06</v>
+      <c r="B12">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C12">
         <v>0.82</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E12">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.04</v>
+      <c r="B13">
+        <v>0.2</v>
       </c>
       <c r="C13">
         <v>0.72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
+      <c r="B14">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C14">
         <v>0.7</v>
       </c>
       <c r="D14" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="E14">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.02</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0.78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E15">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
+      <c r="B16">
+        <v>0.1</v>
       </c>
       <c r="C16">
         <v>0.7</v>
       </c>
       <c r="D16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="E16">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
+      <c r="B17">
+        <v>0.32</v>
       </c>
       <c r="C17">
         <v>0.78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
+      <c r="B18">
+        <v>0.38</v>
       </c>
       <c r="C18">
         <v>0.8</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E18">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
+      <c r="B19">
+        <v>0.16</v>
       </c>
       <c r="C19">
         <v>0.7</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E19">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
+      <c r="B20">
+        <v>0.06</v>
       </c>
       <c r="C20">
         <v>0.76</v>
       </c>
       <c r="D20" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E20">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
+      <c r="B21">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C21">
         <v>0.72</v>
       </c>
       <c r="D21" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>0.82</v>
+      </c>
+      <c r="E21">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
+      <c r="B22">
+        <v>0.4</v>
       </c>
       <c r="C22">
         <v>0.74</v>
       </c>
       <c r="D22" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="E22">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.02</v>
+      <c r="B23">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C23">
         <v>0.68</v>
       </c>
       <c r="D23" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E23">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
+      <c r="B24">
+        <v>0.08</v>
       </c>
       <c r="C24">
         <v>0.76</v>
       </c>
       <c r="D24" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E24">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.02</v>
+      <c r="B25">
+        <v>0.08</v>
       </c>
       <c r="C25">
         <v>0.72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="E25">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
+      <c r="B26">
+        <v>0.26</v>
       </c>
       <c r="C26">
         <v>0.7</v>
       </c>
       <c r="D26" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.02</v>
+      <c r="B27">
+        <v>0.2</v>
       </c>
       <c r="C27">
         <v>0.68</v>
       </c>
       <c r="D27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E27">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.06</v>
+      <c r="B28">
+        <v>0.36</v>
       </c>
       <c r="C28">
         <v>0.74</v>
       </c>
       <c r="D28" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="E28">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.04</v>
+      <c r="B29">
+        <v>0.12</v>
       </c>
       <c r="C29">
         <v>0.78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="E29">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.04</v>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0.72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E30">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.02</v>
+      <c r="B31">
+        <v>0.2</v>
       </c>
       <c r="C31">
         <v>0.78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>0</v>
+      <c r="B32">
+        <v>0.38</v>
       </c>
       <c r="C32">
         <v>0.68</v>
       </c>
       <c r="D32" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="E32">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
+      <c r="B33">
+        <v>0.2</v>
       </c>
       <c r="C33">
         <v>0.6</v>
       </c>
       <c r="D33" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="E33">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
+      <c r="B34">
+        <v>0.02</v>
       </c>
       <c r="C34">
         <v>0.82</v>
       </c>
       <c r="D34" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E34">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
+      <c r="B35">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C35">
         <v>0.74</v>
       </c>
       <c r="D35" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E35">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
+      <c r="B36">
+        <v>0.16</v>
       </c>
       <c r="C36">
         <v>0.74</v>
       </c>
       <c r="D36" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E36">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>0.02</v>
+      <c r="B37">
+        <v>0.18</v>
       </c>
       <c r="C37">
         <v>0.82</v>
       </c>
       <c r="D37" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E37">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.16</v>
+      <c r="B38">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38">
         <v>0.72</v>
       </c>
       <c r="D38" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="E38">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.02</v>
+      <c r="B39">
+        <v>0.22</v>
       </c>
       <c r="C39">
         <v>0.72</v>
       </c>
       <c r="D39" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E39">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>0.06</v>
+      <c r="B40">
+        <v>0.56000000000000005</v>
       </c>
       <c r="C40">
         <v>0.72</v>
       </c>
       <c r="D40" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E40">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>0</v>
+      <c r="B41">
+        <v>0.02</v>
       </c>
       <c r="C41">
         <v>0.8</v>
       </c>
       <c r="D41" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="E41">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>0.1</v>
+      <c r="B42">
+        <v>0.16</v>
       </c>
       <c r="C42">
         <v>0.78</v>
       </c>
       <c r="D42" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="E42">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>0</v>
+      <c r="B43">
+        <v>0.42</v>
       </c>
       <c r="C43">
         <v>0.76</v>
       </c>
       <c r="D43" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="E43">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>0</v>
+      <c r="B44">
+        <v>0.8</v>
       </c>
       <c r="C44">
         <v>0.82</v>
       </c>
       <c r="D44" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="E44">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.2</v>
+      <c r="B45">
+        <v>0.12</v>
       </c>
       <c r="C45">
         <v>0.68</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E45">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>0</v>
+      <c r="B46">
+        <v>0.34</v>
       </c>
       <c r="C46">
         <v>0.78</v>
       </c>
       <c r="D46" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E46">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.08</v>
+      <c r="B47">
+        <v>0.1</v>
       </c>
       <c r="C47">
         <v>0.72</v>
       </c>
       <c r="D47" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E47">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>0</v>
+      <c r="B48">
+        <v>0.46</v>
       </c>
       <c r="C48">
         <v>0.78</v>
       </c>
       <c r="D48" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="E48">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.04</v>
+      <c r="B49">
+        <v>0.12</v>
       </c>
       <c r="C49">
         <v>0.82</v>
       </c>
       <c r="D49" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E49">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>0</v>
+      <c r="B50">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C50">
         <v>0.82</v>
       </c>
       <c r="D50" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E50">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.06</v>
+      <c r="B51">
+        <v>0.44</v>
       </c>
       <c r="C51">
         <v>0.68</v>
       </c>
       <c r="D51" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="E51">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -3834,7 +3583,7 @@
       </c>
       <c r="B52">
         <f t="shared" ref="B52:C52" si="1">AVERAGE(B2:B49)</f>
-        <v>2.3333333333333334E-2</v>
+        <v>0.19166666666666665</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>

--- a/results/all.xlsx
+++ b/results/all.xlsx
@@ -1325,148 +1325,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="44">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,11 +1481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="666567664"/>
-        <c:axId val="637422720"/>
+        <c:axId val="-2039946448"/>
+        <c:axId val="-2039996272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="666567664"/>
+        <c:axId val="-2039946448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1598,12 +1598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637422720"/>
+        <c:crossAx val="-2039996272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637422720"/>
+        <c:axId val="-2039996272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1716,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666567664"/>
+        <c:crossAx val="-2039946448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2654,7 +2654,7 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
         <v>0.08</v>
       </c>
       <c r="E3">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,7 +2763,7 @@
         <v>0.06</v>
       </c>
       <c r="E6">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>0.16</v>
       </c>
       <c r="E8">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2835,7 +2835,7 @@
         <v>0.02</v>
       </c>
       <c r="E10">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2871,7 +2871,7 @@
         <v>0.7</v>
       </c>
       <c r="E12">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
         <v>0.68</v>
       </c>
       <c r="E13">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
         <v>0.76</v>
       </c>
       <c r="E14">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2925,7 +2925,7 @@
         <v>0.6</v>
       </c>
       <c r="E15">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,7 +2943,7 @@
         <v>0.74</v>
       </c>
       <c r="E16">
-        <v>0.28000000000000003</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,7 +2961,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E17">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2979,7 +2979,7 @@
         <v>0.72</v>
       </c>
       <c r="E18">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
         <v>0.7</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3015,7 +3015,7 @@
         <v>0.68</v>
       </c>
       <c r="E20">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3033,7 +3033,7 @@
         <v>0.82</v>
       </c>
       <c r="E21">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>0.64</v>
       </c>
       <c r="E22">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3069,7 +3069,7 @@
         <v>0.7</v>
       </c>
       <c r="E23">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,7 +3087,7 @@
         <v>0.68</v>
       </c>
       <c r="E24">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
         <v>0.66</v>
       </c>
       <c r="E25">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3123,7 +3123,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E26">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>0.72</v>
       </c>
       <c r="E27">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3159,7 +3159,7 @@
         <v>0.64</v>
       </c>
       <c r="E28">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>0.64</v>
       </c>
       <c r="E29">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>0.68</v>
       </c>
       <c r="E30">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>0.66</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,7 +3231,7 @@
         <v>0.76</v>
       </c>
       <c r="E32">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>0.76</v>
       </c>
       <c r="E33">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
         <v>0.7</v>
       </c>
       <c r="E34">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3285,7 +3285,7 @@
         <v>0.7</v>
       </c>
       <c r="E35">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3303,7 +3303,7 @@
         <v>0.72</v>
       </c>
       <c r="E36">
-        <v>0.26</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3321,7 +3321,7 @@
         <v>0.72</v>
       </c>
       <c r="E37">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3339,7 +3339,7 @@
         <v>0.54</v>
       </c>
       <c r="E38">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,7 +3357,7 @@
         <v>0.68</v>
       </c>
       <c r="E39">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,7 +3375,7 @@
         <v>0.6</v>
       </c>
       <c r="E40">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3393,7 +3393,7 @@
         <v>0.78</v>
       </c>
       <c r="E41">
-        <v>0.3</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3411,7 +3411,7 @@
         <v>0.76</v>
       </c>
       <c r="E42">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>0.74</v>
       </c>
       <c r="E43">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3447,7 +3447,7 @@
         <v>0.66</v>
       </c>
       <c r="E44">
-        <v>0.46</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E45">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3483,7 +3483,7 @@
         <v>0.68</v>
       </c>
       <c r="E46">
-        <v>0.28000000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3501,7 +3501,7 @@
         <v>0.72</v>
       </c>
       <c r="E47">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3519,7 +3519,7 @@
         <v>0.66</v>
       </c>
       <c r="E48">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,7 +3537,7 @@
         <v>0.72</v>
       </c>
       <c r="E49">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
         <v>0.68</v>
       </c>
       <c r="E50">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3573,7 +3573,7 @@
         <v>0.68</v>
       </c>
       <c r="E51">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">

--- a/results/all.xlsx
+++ b/results/all.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK_FALL_2020/CS660/2_a/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Probst\Documents\UK2020\CS660\2_Assignment\frozen-lake\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15286ECC-9812-4187-88D5-664117A734C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="24660" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="15165" yWindow="5160" windowWidth="21900" windowHeight="12840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,33 +42,26 @@
     <t>step</t>
   </si>
   <si>
-    <t>q learn</t>
-  </si>
-  <si>
     <t>SARSA</t>
   </si>
   <si>
-    <t>DynaQ</t>
+    <t>Q-Learning</t>
   </si>
   <si>
-    <t>NN</t>
+    <t>Dyna-Q</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,25 +87,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0F2080"/>
+      <color rgb="FF85C0F9"/>
+      <color rgb="FFA95AA1"/>
+      <color rgb="FFF5793A"/>
+      <color rgb="FF3FB85A"/>
+      <color rgb="FFFCE51E"/>
+      <color rgb="FF2A487A"/>
+      <color rgb="FF340042"/>
+      <color rgb="FFDC267F"/>
+      <color rgb="FFFFB000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -115,6 +134,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Mean Reward for Agents over</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> 50,000 Training Episodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -125,12 +204,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Dyna Q</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dyna-Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="85C0F9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -141,11 +228,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="85C0F9"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="85C0F9"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -153,337 +240,665 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$49</c:f>
+              <c:f>Sheet1!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.14</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="33">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="54">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="70">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="72">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="92">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.12</c:v>
+                <c:pt idx="99">
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD76-45E6-A5C5-56D362AA6ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>qlearn</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q-Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="F5793A"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="F5793A"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="F5793A"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -491,337 +906,665 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$49</c:f>
+              <c:f>Sheet1!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.76</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.72</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.78</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.82</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.72</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="87">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="90">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD76-45E6-A5C5-56D362AA6ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SARSA</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SARSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0F2080"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0F2080"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="0F2080"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -829,337 +1572,665 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.58</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.6</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.76</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.74</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.66</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.58</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.68</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.72</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.66</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.72</c:v>
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD76-45E6-A5C5-56D362AA6ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>NN</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="A95AA1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="A95AA1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="A95AA1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1167,186 +2238,345 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$E$2:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.02</c:v>
@@ -1358,10 +2588,10 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.24</c:v>
@@ -1382,7 +2612,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.18</c:v>
@@ -1394,7 +2624,7 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.3</c:v>
@@ -1418,7 +2648,7 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.26</c:v>
@@ -1427,10 +2657,10 @@
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.14</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.18</c:v>
@@ -1442,13 +2672,13 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.06</c:v>
@@ -1457,7 +2687,7 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.22</c:v>
@@ -1467,11 +2697,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD76-45E6-A5C5-56D362AA6ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1488,7 +2729,7 @@
         <c:axId val="-2039946448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1513,7 +2754,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1526,13 +2767,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Episode (in 1000s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1546,7 +2786,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1562,6 +2802,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1583,7 +2824,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1606,7 +2847,7 @@
         <c:axId val="-2039996272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1631,7 +2872,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1644,13 +2885,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Mean Reward</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1664,7 +2904,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1680,6 +2920,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1701,7 +2942,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1730,7 +2971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1744,7 +2984,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2363,14 +3603,20 @@
       <xdr:rowOff>173620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>634829</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>77875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2650,16 +3896,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2667,16 +3913,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>0</f>
         <v>0</v>
@@ -2687,140 +3933,140 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="D2">
+        <v>0.06</v>
       </c>
       <c r="E2">
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="C4">
-        <v>0.26</v>
-      </c>
-      <c r="D4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
+        <v>0.42</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.66</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.06</v>
+        <v>0.74</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.16</v>
+        <v>0.76</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D9" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2829,250 +4075,250 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.86</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.02</v>
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>0.24</v>
       </c>
       <c r="E10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C11">
-        <v>0.84</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.7</v>
+        <v>0.72</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="C12">
-        <v>0.82</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.7</v>
+        <v>0.76</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="C13">
         <v>0.72</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.68</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.14000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.76</v>
+        <v>0.66</v>
+      </c>
+      <c r="D14">
+        <v>0.04</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C15">
-        <v>0.78</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.6</v>
+        <v>0.76</v>
+      </c>
+      <c r="D15">
+        <v>0.08</v>
       </c>
       <c r="E15">
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="C16">
         <v>0.7</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.74</v>
+      <c r="D16">
+        <v>0.08</v>
       </c>
       <c r="E16">
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.78</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.76</v>
+      </c>
+      <c r="D17">
+        <v>0.22</v>
       </c>
       <c r="E17">
         <v>0.52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="C18">
         <v>0.8</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.72</v>
+      <c r="D18">
+        <v>0.08</v>
       </c>
       <c r="E18">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.62</v>
+      </c>
+      <c r="D19">
         <v>0.16</v>
-      </c>
-      <c r="C19">
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.7</v>
       </c>
       <c r="E19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0.76</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.68</v>
+      <c r="D20">
+        <v>0.2</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="C21">
-        <v>0.72</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.82</v>
+        <v>0.74</v>
+      </c>
+      <c r="D21">
+        <v>0.08</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="C22">
-        <v>0.74</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.64</v>
+        <v>0.76</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
       </c>
       <c r="E22">
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.84</v>
+      </c>
+      <c r="D23">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="C23">
-        <v>0.68</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.7</v>
       </c>
       <c r="E23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3081,732 +4327,1269 @@
         <v>0.08</v>
       </c>
       <c r="C24">
-        <v>0.76</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.68</v>
+        <v>0.48</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
       </c>
       <c r="E24">
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C25">
-        <v>0.72</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.66</v>
+        <v>0.78</v>
+      </c>
+      <c r="D25">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0.7</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.57999999999999996</v>
+      <c r="D26">
+        <v>0.1</v>
       </c>
       <c r="E26">
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C27">
-        <v>0.68</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.72</v>
+        <v>0.74</v>
+      </c>
+      <c r="D27">
+        <v>0.12</v>
       </c>
       <c r="E27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="C28">
-        <v>0.74</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.64</v>
+        <v>0.66</v>
+      </c>
+      <c r="D28">
+        <v>0.16</v>
       </c>
       <c r="E28">
         <v>0.46</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="C29">
-        <v>0.78</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.64</v>
+        <v>0.68</v>
+      </c>
+      <c r="D29">
+        <v>0.18</v>
       </c>
       <c r="E29">
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C30">
-        <v>0.72</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.68</v>
+        <v>0.84</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
       </c>
       <c r="E30">
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C31">
-        <v>0.78</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.66</v>
+        <v>0.62</v>
+      </c>
+      <c r="D31">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E31">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="C32">
-        <v>0.68</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.76</v>
+        <v>0.7</v>
+      </c>
+      <c r="D32">
+        <v>0.06</v>
       </c>
       <c r="E32">
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="C33">
-        <v>0.6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.76</v>
+        <v>0.7</v>
+      </c>
+      <c r="D33">
+        <v>0.12</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>0.82</v>
-      </c>
-      <c r="D34" s="1">
         <v>0.7</v>
+      </c>
+      <c r="D34">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E34">
         <v>0.26</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.14000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="C35">
         <v>0.74</v>
       </c>
-      <c r="D35" s="1">
-        <v>0.7</v>
+      <c r="D35">
+        <v>0.22</v>
       </c>
       <c r="E35">
         <v>0.46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="C36">
-        <v>0.74</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.72</v>
+        <v>0.62</v>
+      </c>
+      <c r="D36">
+        <v>0.28000000000000003</v>
       </c>
       <c r="E36">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>0.82</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.72</v>
+        <v>0.74</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="C38">
-        <v>0.72</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.54</v>
+        <v>0.64</v>
+      </c>
+      <c r="D38">
+        <v>0.18</v>
       </c>
       <c r="E38">
         <v>0.18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="C39">
         <v>0.72</v>
       </c>
-      <c r="D39" s="1">
-        <v>0.68</v>
+      <c r="D39">
+        <v>0.2</v>
       </c>
       <c r="E39">
         <v>0.52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.56000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="C40">
-        <v>0.72</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.6</v>
+        <v>0.74</v>
+      </c>
+      <c r="D40">
+        <v>0.16</v>
       </c>
       <c r="E40">
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="C41">
-        <v>0.8</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.78</v>
+        <v>0.66</v>
+      </c>
+      <c r="D41">
+        <v>0.24</v>
       </c>
       <c r="E41">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0.78</v>
       </c>
-      <c r="D42" s="1">
-        <v>0.76</v>
+      <c r="D42">
+        <v>0.22</v>
       </c>
       <c r="E42">
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="C43">
-        <v>0.76</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.74</v>
+        <v>0.68</v>
+      </c>
+      <c r="D43">
+        <v>0.18</v>
       </c>
       <c r="E43">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.26</v>
       </c>
       <c r="C44">
-        <v>0.82</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.66</v>
+        <v>0.62</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
       </c>
       <c r="E44">
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.12</v>
+        <v>0.46</v>
       </c>
       <c r="C45">
-        <v>0.68</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.84</v>
+      </c>
+      <c r="D45">
+        <v>0.28000000000000003</v>
       </c>
       <c r="E45">
         <v>0.22</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="C46">
-        <v>0.78</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.68</v>
+        <v>0.76</v>
+      </c>
+      <c r="D46">
+        <v>0.18</v>
       </c>
       <c r="E46">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.72</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.72</v>
+        <v>0.44</v>
+      </c>
+      <c r="D47">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E47">
         <v>0.22</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C48">
-        <v>0.78</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.66</v>
+        <v>0.54</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
       </c>
       <c r="E48">
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="C49">
-        <v>0.82</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.72</v>
+        <v>0.46</v>
+      </c>
+      <c r="D49">
+        <v>0.18</v>
       </c>
       <c r="E49">
         <v>0.32</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.6</v>
+      </c>
+      <c r="D50">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="C50">
-        <v>0.82</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.68</v>
       </c>
       <c r="E50">
         <v>0.16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="C51">
-        <v>0.68</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.68</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D51">
+        <v>0.16</v>
       </c>
       <c r="E51">
         <v>0.48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:C52" si="1">AVERAGE(B2:B49)</f>
-        <v>0.19166666666666665</v>
+        <v>0.26</v>
       </c>
       <c r="C52">
+        <v>0.42</v>
+      </c>
+      <c r="D52">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.52</v>
+      </c>
+      <c r="C53">
+        <v>0.44</v>
+      </c>
+      <c r="D53">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.3</v>
+      </c>
+      <c r="C54">
+        <v>0.6</v>
+      </c>
+      <c r="D54">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.36</v>
+      </c>
+      <c r="C55">
+        <v>0.52</v>
+      </c>
+      <c r="D55">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.44</v>
+      </c>
+      <c r="C56">
+        <v>0.54</v>
+      </c>
+      <c r="D56">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.22</v>
+      </c>
+      <c r="C57">
+        <v>0.54</v>
+      </c>
+      <c r="D57">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.02</v>
+      </c>
+      <c r="C58">
+        <v>0.6</v>
+      </c>
+      <c r="D58">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.04</v>
+      </c>
+      <c r="C59">
+        <v>0.4</v>
+      </c>
+      <c r="D59">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.54</v>
+      </c>
+      <c r="C60">
+        <v>0.52</v>
+      </c>
+      <c r="D60">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.08</v>
+      </c>
+      <c r="C61">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D61">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.16</v>
+      </c>
+      <c r="C62">
+        <v>0.46</v>
+      </c>
+      <c r="D62">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.44</v>
+      </c>
+      <c r="D64">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>0.4</v>
+      </c>
+      <c r="D65">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.24</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C67">
+        <v>0.54</v>
+      </c>
+      <c r="D67">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.44</v>
+      </c>
+      <c r="C68">
+        <v>0.46</v>
+      </c>
+      <c r="D68">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
         <f t="shared" si="1"/>
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="D52" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.32</v>
+      </c>
+      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.46</v>
+      </c>
+      <c r="D70">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" ref="A68:A88" si="2">A67+1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>0.54</v>
+      </c>
+      <c r="D71">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0.08</v>
+      </c>
+      <c r="C72">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D72">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0.2</v>
+      </c>
+      <c r="C73">
+        <v>0.48</v>
+      </c>
+      <c r="D73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0.12</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0.32</v>
+      </c>
+      <c r="C75">
+        <v>0.42</v>
+      </c>
+      <c r="D75">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0.26</v>
+      </c>
+      <c r="C76">
+        <v>0.54</v>
+      </c>
+      <c r="D76">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0.44</v>
+      </c>
+      <c r="D77">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0.24</v>
+      </c>
+      <c r="C78">
+        <v>0.52</v>
+      </c>
+      <c r="D78">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0.36</v>
+      </c>
+      <c r="C79">
+        <v>0.54</v>
+      </c>
+      <c r="D79">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0.4</v>
+      </c>
+      <c r="C80">
+        <v>0.44</v>
+      </c>
+      <c r="D80">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0.22</v>
+      </c>
+      <c r="C81">
+        <v>0.64</v>
+      </c>
+      <c r="D81">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0.08</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C83">
+        <v>0.64</v>
+      </c>
+      <c r="D83">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0.08</v>
+      </c>
+      <c r="C84">
+        <v>0.72</v>
+      </c>
+      <c r="D84">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.78</v>
+      </c>
+      <c r="D85">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0.84</v>
+      </c>
+      <c r="D86">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0.7</v>
+      </c>
+      <c r="C87">
+        <v>0.78</v>
+      </c>
+      <c r="D87">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.66</v>
+      </c>
+      <c r="C88">
+        <v>0.82</v>
+      </c>
+      <c r="D88">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.26</v>
+      </c>
+      <c r="C89">
+        <v>0.66</v>
+      </c>
+      <c r="D89">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.22</v>
+      </c>
+      <c r="C90">
+        <v>0.76</v>
+      </c>
+      <c r="D90">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.22</v>
+      </c>
+      <c r="C91">
+        <v>0.72</v>
+      </c>
+      <c r="D91">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.24</v>
+      </c>
+      <c r="C92">
+        <v>0.7</v>
+      </c>
+      <c r="D92">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.2</v>
+      </c>
+      <c r="C93">
+        <v>0.7</v>
+      </c>
+      <c r="D93">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.32</v>
+      </c>
+      <c r="C94">
+        <v>0.82</v>
+      </c>
+      <c r="D94">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.52</v>
+      </c>
+      <c r="C95">
+        <v>0.72</v>
+      </c>
+      <c r="D95">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.48</v>
+      </c>
+      <c r="C96">
+        <v>0.74</v>
+      </c>
+      <c r="D96">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.08</v>
+      </c>
+      <c r="C97">
+        <v>0.7</v>
+      </c>
+      <c r="D97">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.36</v>
+      </c>
+      <c r="C98">
+        <v>0.82</v>
+      </c>
+      <c r="D98">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.12</v>
+      </c>
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.22</v>
+      </c>
+      <c r="C100">
+        <v>0.76</v>
+      </c>
+      <c r="D100">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.26</v>
+      </c>
+      <c r="C101">
+        <v>0.82</v>
+      </c>
+      <c r="D101">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f>AVERAGE(B52:B101)</f>
+        <v>0.25560000000000005</v>
+      </c>
+      <c r="C103">
+        <f>AVERAGE(C84:C101)</f>
+        <v>0.75888888888888895</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D66:D101)</f>
+        <v>0.31111111111111101</v>
       </c>
     </row>
   </sheetData>

--- a/results/all.xlsx
+++ b/results/all.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Probst\Documents\UK2020\CS660\2_Assignment\frozen-lake\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK_FALL_2020/CS660/2_a/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15286ECC-9812-4187-88D5-664117A734C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="5160" windowWidth="21900" windowHeight="12840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1580" windowWidth="21900" windowHeight="12840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -165,6 +164,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -245,307 +245,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,7 +557,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.06</c:v>
@@ -569,19 +569,19 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.08</c:v>
@@ -596,22 +596,22 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.02</c:v>
@@ -620,7 +620,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.08</c:v>
@@ -629,7 +629,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.16</c:v>
@@ -644,7 +644,7 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.04</c:v>
@@ -677,7 +677,7 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.12</c:v>
@@ -692,16 +692,16 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.06</c:v>
@@ -740,10 +740,10 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.1</c:v>
@@ -752,7 +752,7 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.44</c:v>
@@ -761,7 +761,7 @@
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.12</c:v>
@@ -782,7 +782,7 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.24</c:v>
@@ -800,16 +800,16 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.7</c:v>
@@ -860,7 +860,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD76-45E6-A5C5-56D362AA6ACB}"/>
             </c:ext>
@@ -911,307 +911,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,10 +1223,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.06</c:v>
@@ -1370,7 +1370,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.42</c:v>
@@ -1400,7 +1400,7 @@
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.46</c:v>
@@ -1433,7 +1433,7 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.48</c:v>
@@ -1526,7 +1526,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FD76-45E6-A5C5-56D362AA6ACB}"/>
             </c:ext>
@@ -1577,307 +1577,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,25 +1892,25 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.24</c:v>
@@ -1919,10 +1919,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.04</c:v>
@@ -1952,13 +1952,13 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.1</c:v>
@@ -1976,7 +1976,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.06</c:v>
@@ -1985,13 +1985,13 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.1</c:v>
@@ -2018,13 +2018,13 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.2</c:v>
@@ -2033,7 +2033,7 @@
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.16</c:v>
@@ -2069,13 +2069,13 @@
                   <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.26</c:v>
@@ -2144,7 +2144,7 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.3</c:v>
@@ -2153,7 +2153,7 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.32</c:v>
@@ -2171,7 +2171,7 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.26</c:v>
@@ -2192,7 +2192,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FD76-45E6-A5C5-56D362AA6ACB}"/>
             </c:ext>
@@ -2243,307 +2243,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,160 +2555,310 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.48</c:v>
+                <c:pt idx="78">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FD76-45E6-A5C5-56D362AA6ACB}"/>
             </c:ext>
@@ -2722,14 +2872,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2039946448"/>
-        <c:axId val="-2039996272"/>
+        <c:axId val="-1750306176"/>
+        <c:axId val="-1750303536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2039946448"/>
+        <c:axId val="-1750306176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2773,6 +2923,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2839,15 +2990,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039996272"/>
+        <c:crossAx val="-1750303536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2039996272"/>
+        <c:axId val="-1750303536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2891,6 +3042,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2957,7 +3109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039946448"/>
+        <c:crossAx val="-1750306176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2971,6 +3123,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3613,7 +3766,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,14 +4049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3922,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>0</f>
         <v>0</v>
@@ -3937,10 +4090,10 @@
         <v>0.06</v>
       </c>
       <c r="E2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -3958,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -3976,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3991,10 +4144,10 @@
         <v>0.04</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4012,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4030,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4048,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4066,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4081,10 +4234,10 @@
         <v>0.24</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4099,10 +4252,10 @@
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4117,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4138,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4156,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4171,10 +4324,10 @@
         <v>0.08</v>
       </c>
       <c r="E15">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4189,10 +4342,10 @@
         <v>0.08</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4207,10 +4360,10 @@
         <v>0.22</v>
       </c>
       <c r="E17">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4225,10 +4378,10 @@
         <v>0.08</v>
       </c>
       <c r="E18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4243,10 +4396,10 @@
         <v>0.16</v>
       </c>
       <c r="E19">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4261,10 +4414,10 @@
         <v>0.2</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4282,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4297,10 +4450,10 @@
         <v>0.1</v>
       </c>
       <c r="E22">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4315,10 +4468,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4333,10 +4486,10 @@
         <v>0.1</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4354,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4369,10 +4522,10 @@
         <v>0.1</v>
       </c>
       <c r="E26">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4387,10 +4540,10 @@
         <v>0.12</v>
       </c>
       <c r="E27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4405,10 +4558,10 @@
         <v>0.16</v>
       </c>
       <c r="E28">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4423,10 +4576,10 @@
         <v>0.18</v>
       </c>
       <c r="E29">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4441,10 +4594,10 @@
         <v>0.2</v>
       </c>
       <c r="E30">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4459,10 +4612,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4477,10 +4630,10 @@
         <v>0.06</v>
       </c>
       <c r="E32">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4498,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4513,10 +4666,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E34">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4531,10 +4684,10 @@
         <v>0.22</v>
       </c>
       <c r="E35">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4549,10 +4702,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E36">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4567,10 +4720,10 @@
         <v>0.1</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4585,10 +4738,10 @@
         <v>0.18</v>
       </c>
       <c r="E38">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4603,10 +4756,10 @@
         <v>0.2</v>
       </c>
       <c r="E39">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4621,10 +4774,10 @@
         <v>0.16</v>
       </c>
       <c r="E40">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4639,10 +4792,10 @@
         <v>0.24</v>
       </c>
       <c r="E41">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4657,10 +4810,10 @@
         <v>0.22</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4675,10 +4828,10 @@
         <v>0.18</v>
       </c>
       <c r="E43">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4693,10 +4846,10 @@
         <v>0.1</v>
       </c>
       <c r="E44">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4711,10 +4864,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E45">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4729,10 +4882,10 @@
         <v>0.18</v>
       </c>
       <c r="E46">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4747,10 +4900,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E47">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4765,10 +4918,10 @@
         <v>0.2</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4783,10 +4936,10 @@
         <v>0.18</v>
       </c>
       <c r="E49">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4801,10 +4954,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E50">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4819,10 +4972,10 @@
         <v>0.16</v>
       </c>
       <c r="E51">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4836,8 +4989,11 @@
       <c r="D52">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4851,8 +5007,11 @@
       <c r="D53">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4866,8 +5025,11 @@
       <c r="D54">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4881,8 +5043,11 @@
       <c r="D55">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4896,8 +5061,11 @@
       <c r="D56">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4911,8 +5079,11 @@
       <c r="D57">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4926,8 +5097,11 @@
       <c r="D58">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4941,8 +5115,11 @@
       <c r="D59">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4956,8 +5133,11 @@
       <c r="D60">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4971,8 +5151,11 @@
       <c r="D61">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4986,8 +5169,11 @@
       <c r="D62">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5001,8 +5187,11 @@
       <c r="D63">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5016,8 +5205,11 @@
       <c r="D64">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5031,8 +5223,11 @@
       <c r="D65">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5046,8 +5241,11 @@
       <c r="D66">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5061,8 +5259,11 @@
       <c r="D67">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
@@ -5076,8 +5277,11 @@
       <c r="D68">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -5091,8 +5295,11 @@
       <c r="D69">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5106,8 +5313,11 @@
       <c r="D70">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5121,8 +5331,11 @@
       <c r="D71">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5136,8 +5349,11 @@
       <c r="D72">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5151,8 +5367,11 @@
       <c r="D73">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5166,8 +5385,11 @@
       <c r="D74">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5181,8 +5403,11 @@
       <c r="D75">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5196,8 +5421,11 @@
       <c r="D76">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5211,8 +5439,11 @@
       <c r="D77">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5226,8 +5457,11 @@
       <c r="D78">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5241,8 +5475,11 @@
       <c r="D79">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5256,8 +5493,11 @@
       <c r="D80">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5271,8 +5511,11 @@
       <c r="D81">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5286,8 +5529,11 @@
       <c r="D82">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5301,8 +5547,11 @@
       <c r="D83">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5316,8 +5565,11 @@
       <c r="D84">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5331,8 +5583,11 @@
       <c r="D85">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5346,8 +5601,11 @@
       <c r="D86">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5361,8 +5619,11 @@
       <c r="D87">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5376,8 +5637,11 @@
       <c r="D88">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5391,8 +5655,11 @@
       <c r="D89">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5406,8 +5673,11 @@
       <c r="D90">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5421,8 +5691,11 @@
       <c r="D91">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5436,8 +5709,11 @@
       <c r="D92">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5451,8 +5727,11 @@
       <c r="D93">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5466,8 +5745,11 @@
       <c r="D94">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5481,8 +5763,11 @@
       <c r="D95">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5496,8 +5781,11 @@
       <c r="D96">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5511,8 +5799,11 @@
       <c r="D97">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5526,8 +5817,11 @@
       <c r="D98">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5541,8 +5835,11 @@
       <c r="D99">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5556,8 +5853,11 @@
       <c r="D100">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5571,14 +5871,17 @@
       <c r="D101">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B103">
         <f>AVERAGE(B52:B101)</f>
         <v>0.25560000000000005</v>
